--- a/Task 1 Kcs/output.xlsx
+++ b/Task 1 Kcs/output.xlsx
@@ -5,12 +5,12 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Task Kcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tasks KCS\Tasks-KCS\Task 1 Kcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC95FE0B-0784-4BAD-AAFB-80DB49A16E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8426BB-90CB-40BA-8A65-ADB663E68121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="9420" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,16 +29,19 @@
     <x:t>PAN Number</x:t>
   </x:si>
   <x:si>
+    <x:t>Account No</x:t>
+  </x:si>
+  <x:si>
     <x:t>Subject</x:t>
   </x:si>
   <x:si>
     <x:t>Marks</x:t>
   </x:si>
   <x:si>
-    <x:t>Krushna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XXXXX0002X</x:t>
+    <x:t>XRJMN7211J</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27596645</x:t>
   </x:si>
   <x:si>
     <x:t>Cyber Security</x:t>
@@ -53,22 +56,31 @@
     <x:t>Software Engineering</x:t>
   </x:si>
   <x:si>
-    <x:t>Pankaj</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XXXXX0003X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Suraj</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XXXXX0004X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Umesh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XXXXX0001X</x:t>
+    <x:t>GGFME9047Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22873562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FKEXJ0624N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17206436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VHSWP4682B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98798948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vikram</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suresh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pooja</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -451,10 +463,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D17"/>
+  <x:dimension ref="A1:E17"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C17" sqref="C17"/>
+      <x:selection activeCell="I16" sqref="I16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +477,7 @@
     <x:col min="4" max="4" width="18.109375" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -478,66 +490,81 @@
       <x:c r="D1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="0">
         <x:v>76</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E3" s="0">
         <x:v>99</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D4" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E4" s="0">
         <x:v>84</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E5" s="0">
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>5</x:v>
@@ -545,161 +572,197 @@
       <x:c r="C6" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D6" s="0">
+      <x:c r="D6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E6" s="0">
         <x:v>96</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D7" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E7" s="0">
         <x:v>82</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A8" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D8" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E8" s="0">
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A9" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D9" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E9" s="0">
         <x:v>89</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A10" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D10" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E10" s="0">
         <x:v>72</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D11" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E11" s="0">
         <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A12" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D12" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E12" s="0">
         <x:v>96</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D13" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E13" s="0">
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A14" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D14" s="0">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E14" s="0">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D15" s="0">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E15" s="0">
         <x:v>92</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A16" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D16" s="0">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E16" s="0">
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <x:row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A17" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D17" s="0">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E17" s="0">
         <x:v>65</x:v>
       </x:c>
     </x:row>

--- a/Task 1 Kcs/output.xlsx
+++ b/Task 1 Kcs/output.xlsx
@@ -5,12 +5,12 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tasks KCS\Tasks-KCS\Task 1 Kcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Task Kcs\Tasks-KCS-Task1\Task 1 Kcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8426BB-90CB-40BA-8A65-ADB663E68121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1AED09-2AA5-4153-BCB7-B8B75E15A7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="9420" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,27 +26,27 @@
     <x:t>Name</x:t>
   </x:si>
   <x:si>
+    <x:t>Account No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marks</x:t>
+  </x:si>
+  <x:si>
     <x:t>PAN Number</x:t>
   </x:si>
   <x:si>
-    <x:t>Account No</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Subject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XRJMN7211J</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27596645</x:t>
+    <x:t>CIYTY3907S</x:t>
   </x:si>
   <x:si>
     <x:t>Cyber Security</x:t>
   </x:si>
   <x:si>
+    <x:t>97450749</x:t>
+  </x:si>
+  <x:si>
     <x:t>Mathematics</x:t>
   </x:si>
   <x:si>
@@ -56,31 +56,34 @@
     <x:t>Software Engineering</x:t>
   </x:si>
   <x:si>
-    <x:t>GGFME9047Q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22873562</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FKEXJ0624N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17206436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VHSWP4682B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98798948</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vikram</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Suresh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pooja</x:t>
+    <x:t>OHNQX5557R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60221685</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OZOUX7532I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70907929</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VYUJR5538N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21391532</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Priya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ravi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -466,16 +469,10 @@
   <x:dimension ref="A1:E17"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="I16" sqref="I16"/>
+      <x:selection activeCell="H13" sqref="H13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="24.664062" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.886719" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.109375" style="0" customWidth="1"/>
-  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
@@ -499,16 +496,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="0">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E2" s="0">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -516,16 +513,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="0">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E3" s="0">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -533,16 +530,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="0">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E4" s="0">
-        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -550,16 +547,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="0">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E5" s="0">
-        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -567,16 +564,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E6" s="0">
+      <x:c r="D6" s="0">
         <x:v>96</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -584,16 +581,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D7" s="0">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E7" s="0">
-        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -601,16 +598,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D8" s="0">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E8" s="0">
-        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -618,152 +615,152 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="0">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E9" s="0">
-        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D10" s="0">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E10" s="0">
-        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D11" s="0">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E11" s="0">
-        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A12" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D12" s="0">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E12" s="0">
-        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A13" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D13" s="0">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E13" s="0">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A14" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D14" s="0">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E14" s="0">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A15" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D15" s="0">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E15" s="0">
-        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A16" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D16" s="0">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E16" s="0">
-        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A17" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D17" s="0">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E17" s="0">
-        <x:v>65</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
